--- a/data/pca/factorExposure/factorExposure_2019-05-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-05-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1254661329984771</v>
+        <v>0.07833989618245539</v>
       </c>
       <c r="C2">
-        <v>0.01493504974751216</v>
+        <v>-0.02295021764461025</v>
       </c>
       <c r="D2">
-        <v>0.04156312667122899</v>
+        <v>0.04352573074850974</v>
       </c>
       <c r="E2">
-        <v>-0.09340063734699522</v>
+        <v>-0.03925219936032081</v>
       </c>
       <c r="F2">
-        <v>0.1062786156415838</v>
+        <v>0.1368917264792948</v>
       </c>
       <c r="G2">
-        <v>0.1156851369057504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.09796719963566258</v>
+      </c>
+      <c r="H2">
+        <v>-0.08203804524812584</v>
+      </c>
+      <c r="I2">
+        <v>0.02458847357949224</v>
+      </c>
+      <c r="J2">
+        <v>-0.04203363572571128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2107935347293589</v>
+        <v>0.1583699922344308</v>
       </c>
       <c r="C3">
-        <v>-0.09199003747981774</v>
+        <v>-0.09008802934724906</v>
       </c>
       <c r="D3">
-        <v>-0.01346386475230791</v>
+        <v>-0.03449704037549138</v>
       </c>
       <c r="E3">
-        <v>-0.3267558375474389</v>
+        <v>-0.04552213538663839</v>
       </c>
       <c r="F3">
-        <v>0.0361544732837535</v>
+        <v>0.3778541218227279</v>
       </c>
       <c r="G3">
-        <v>0.3542487575136732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.0289575282168611</v>
+      </c>
+      <c r="H3">
+        <v>-0.2810169381633958</v>
+      </c>
+      <c r="I3">
+        <v>0.1767896793975762</v>
+      </c>
+      <c r="J3">
+        <v>-0.4012006465920839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09705101284472131</v>
+        <v>0.07380688312954024</v>
       </c>
       <c r="C4">
-        <v>-0.02631038129137471</v>
+        <v>-0.03781461660436167</v>
       </c>
       <c r="D4">
-        <v>0.01929449948894503</v>
+        <v>0.02158913320097527</v>
       </c>
       <c r="E4">
-        <v>-0.07311563355980802</v>
+        <v>0.02488295007320807</v>
       </c>
       <c r="F4">
-        <v>0.05232642121699427</v>
+        <v>0.09311007189863547</v>
       </c>
       <c r="G4">
-        <v>0.03522945427551077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03640490501149889</v>
+      </c>
+      <c r="H4">
+        <v>-0.03036523894161678</v>
+      </c>
+      <c r="I4">
+        <v>0.02148873400177813</v>
+      </c>
+      <c r="J4">
+        <v>-0.03889743956982052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01750284504433207</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.004514193530215201</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0005503372481265081</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.00632792892853224</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.00249041406756915</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01847255779388167</v>
+      </c>
+      <c r="H6">
+        <v>-0.002552916148049989</v>
+      </c>
+      <c r="I6">
+        <v>-0.008438022740098038</v>
+      </c>
+      <c r="J6">
+        <v>0.003151611487243384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04121070194662579</v>
+        <v>0.03234467012866911</v>
       </c>
       <c r="C7">
-        <v>-0.006404366555624812</v>
+        <v>-0.0187897226601302</v>
       </c>
       <c r="D7">
-        <v>0.03373458948598378</v>
+        <v>0.01826553803241356</v>
       </c>
       <c r="E7">
-        <v>-0.07447882980746461</v>
+        <v>0.009523238895261689</v>
       </c>
       <c r="F7">
-        <v>-0.03889800576742078</v>
+        <v>0.06145495679660166</v>
       </c>
       <c r="G7">
-        <v>0.02632043861937148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01219869197857895</v>
+      </c>
+      <c r="H7">
+        <v>-0.05446401307657456</v>
+      </c>
+      <c r="I7">
+        <v>-0.003429179786903352</v>
+      </c>
+      <c r="J7">
+        <v>-0.002665105139909005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04086366269928002</v>
+        <v>0.03120752192190245</v>
       </c>
       <c r="C8">
-        <v>-0.03927277576479349</v>
+        <v>-0.04027400336105981</v>
       </c>
       <c r="D8">
-        <v>0.002097998047922158</v>
+        <v>0.004640172804718622</v>
       </c>
       <c r="E8">
-        <v>-0.07146082887567161</v>
+        <v>0.01576807345496953</v>
       </c>
       <c r="F8">
-        <v>0.003824822143849283</v>
+        <v>0.08449136334991193</v>
       </c>
       <c r="G8">
-        <v>0.05578386204876469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.002166340208814761</v>
+      </c>
+      <c r="H8">
+        <v>-0.0548313787858314</v>
+      </c>
+      <c r="I8">
+        <v>0.02656308811970558</v>
+      </c>
+      <c r="J8">
+        <v>-0.03418970056681604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08564283677163799</v>
+        <v>0.06269739950514681</v>
       </c>
       <c r="C9">
-        <v>-0.02941792113815251</v>
+        <v>-0.03779298298535239</v>
       </c>
       <c r="D9">
-        <v>0.0300205351345791</v>
+        <v>0.02247869282056212</v>
       </c>
       <c r="E9">
-        <v>-0.06629990327512079</v>
+        <v>0.02605548276090541</v>
       </c>
       <c r="F9">
-        <v>0.03287275693595406</v>
+        <v>0.09381092584100617</v>
       </c>
       <c r="G9">
-        <v>0.03702103774615741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0279221871328413</v>
+      </c>
+      <c r="H9">
+        <v>-0.02756646392907935</v>
+      </c>
+      <c r="I9">
+        <v>0.002344513116285956</v>
+      </c>
+      <c r="J9">
+        <v>-0.002483886387749306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.008590006617097589</v>
+        <v>0.01460884299578996</v>
       </c>
       <c r="C10">
-        <v>0.1592894746415864</v>
+        <v>0.1577373517717161</v>
       </c>
       <c r="D10">
-        <v>-0.007947050854814506</v>
+        <v>-0.00999066874692627</v>
       </c>
       <c r="E10">
-        <v>-0.05746625572171642</v>
+        <v>-0.03150691476374853</v>
       </c>
       <c r="F10">
-        <v>0.01582934848331618</v>
+        <v>0.06000926450883141</v>
       </c>
       <c r="G10">
-        <v>-0.002936376290259706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02162521449676221</v>
+      </c>
+      <c r="H10">
+        <v>0.007546075378397536</v>
+      </c>
+      <c r="I10">
+        <v>0.1183609101621458</v>
+      </c>
+      <c r="J10">
+        <v>-0.01125161146777958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05753511785186955</v>
+        <v>0.0488365219569112</v>
       </c>
       <c r="C11">
-        <v>-0.005262161773899584</v>
+        <v>-0.02378878743257381</v>
       </c>
       <c r="D11">
-        <v>-0.008634779103363605</v>
+        <v>0.006410047408840997</v>
       </c>
       <c r="E11">
-        <v>-0.04145251236974754</v>
+        <v>-0.01462346682648437</v>
       </c>
       <c r="F11">
-        <v>0.007061779997130672</v>
+        <v>0.04427148467841499</v>
       </c>
       <c r="G11">
-        <v>-0.02434007858682818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.003155049137859456</v>
+      </c>
+      <c r="H11">
+        <v>-0.01412094155625294</v>
+      </c>
+      <c r="I11">
+        <v>-0.02132376632216391</v>
+      </c>
+      <c r="J11">
+        <v>-0.006681581245301369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.0430349125327217</v>
+        <v>0.0440782320571455</v>
       </c>
       <c r="C12">
-        <v>-0.01156513376857732</v>
+        <v>-0.0232295361374673</v>
       </c>
       <c r="D12">
-        <v>-0.005713297008820936</v>
+        <v>0.005603026375849668</v>
       </c>
       <c r="E12">
-        <v>-0.03360137951487267</v>
+        <v>0.0001783988818670095</v>
       </c>
       <c r="F12">
-        <v>0.002729738835075657</v>
+        <v>0.02498732035826384</v>
       </c>
       <c r="G12">
-        <v>-0.003353096962037952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.003836680063702933</v>
+      </c>
+      <c r="H12">
+        <v>-0.0115984128524258</v>
+      </c>
+      <c r="I12">
+        <v>-0.01961610904617899</v>
+      </c>
+      <c r="J12">
+        <v>0.0003834801381686594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05977397472706984</v>
+        <v>0.04169453518770595</v>
       </c>
       <c r="C13">
-        <v>-0.0164192779264173</v>
+        <v>-0.02350280682860311</v>
       </c>
       <c r="D13">
-        <v>-0.00728086044419868</v>
+        <v>0.008570618924752636</v>
       </c>
       <c r="E13">
-        <v>-0.1111968671520977</v>
+        <v>-0.02799955279988442</v>
       </c>
       <c r="F13">
-        <v>0.02647551189918932</v>
+        <v>0.1034086665898469</v>
       </c>
       <c r="G13">
-        <v>0.04838113934614773</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.01168939412784487</v>
+      </c>
+      <c r="H13">
+        <v>-0.05948842389698094</v>
+      </c>
+      <c r="I13">
+        <v>0.009831081621736194</v>
+      </c>
+      <c r="J13">
+        <v>-0.02828717328293378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03713557228894947</v>
+        <v>0.02843998960050401</v>
       </c>
       <c r="C14">
-        <v>-0.009127861019710823</v>
+        <v>-0.01696979953553895</v>
       </c>
       <c r="D14">
-        <v>0.02079808587851101</v>
+        <v>0.02167432872191277</v>
       </c>
       <c r="E14">
-        <v>-0.02209039269503998</v>
+        <v>0.00631767232568135</v>
       </c>
       <c r="F14">
-        <v>-0.0009430150962149576</v>
+        <v>0.04143278850720942</v>
       </c>
       <c r="G14">
-        <v>0.03003747949960621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01694534893898483</v>
+      </c>
+      <c r="H14">
+        <v>-0.05657934551409407</v>
+      </c>
+      <c r="I14">
+        <v>0.01467399749847352</v>
+      </c>
+      <c r="J14">
+        <v>0.01252982600250183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04736823463406482</v>
+        <v>0.04297386857902726</v>
       </c>
       <c r="C16">
-        <v>-0.02157940402929583</v>
+        <v>-0.03197080620457354</v>
       </c>
       <c r="D16">
-        <v>-0.01585591537951145</v>
+        <v>0.0008869117586345367</v>
       </c>
       <c r="E16">
-        <v>-0.03883480749317796</v>
+        <v>-0.009842384641787733</v>
       </c>
       <c r="F16">
-        <v>0.00150383394002599</v>
+        <v>0.03765709361814113</v>
       </c>
       <c r="G16">
-        <v>-0.01585238080271528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.007973976154714534</v>
+      </c>
+      <c r="H16">
+        <v>-0.01702321513359254</v>
+      </c>
+      <c r="I16">
+        <v>-0.01792119586484987</v>
+      </c>
+      <c r="J16">
+        <v>-0.005000660723250436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05157334306288962</v>
+        <v>0.04512071182047533</v>
       </c>
       <c r="C19">
-        <v>-0.02642682714880032</v>
+        <v>-0.03517140651015719</v>
       </c>
       <c r="D19">
-        <v>0.001429840267549241</v>
+        <v>0.008916024689140536</v>
       </c>
       <c r="E19">
-        <v>-0.08002269411832576</v>
+        <v>-0.00967639074626717</v>
       </c>
       <c r="F19">
-        <v>-0.001633554905752397</v>
+        <v>0.09126277045236114</v>
       </c>
       <c r="G19">
-        <v>0.06120590617167512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.0004224094778501002</v>
+      </c>
+      <c r="H19">
+        <v>-0.0827748132968598</v>
+      </c>
+      <c r="I19">
+        <v>0.03616321248319097</v>
+      </c>
+      <c r="J19">
+        <v>-0.02151232163966632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03617347517834212</v>
+        <v>0.01733044370753091</v>
       </c>
       <c r="C20">
-        <v>-0.03455103385420858</v>
+        <v>-0.03337318830188398</v>
       </c>
       <c r="D20">
-        <v>0.01317788999152153</v>
+        <v>0.01289143669759569</v>
       </c>
       <c r="E20">
-        <v>-0.06768202699959411</v>
+        <v>0.008055039351666066</v>
       </c>
       <c r="F20">
-        <v>-0.008895180230792917</v>
+        <v>0.07632343602370309</v>
       </c>
       <c r="G20">
-        <v>0.04009117568244929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.004378671028222045</v>
+      </c>
+      <c r="H20">
+        <v>-0.07561290295770685</v>
+      </c>
+      <c r="I20">
+        <v>0.01428592075171603</v>
+      </c>
+      <c r="J20">
+        <v>-0.04487643166055774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03890617187335694</v>
+        <v>0.02066467517780574</v>
       </c>
       <c r="C21">
-        <v>-0.01606623596883372</v>
+        <v>-0.0266563157313383</v>
       </c>
       <c r="D21">
-        <v>-0.0005514514156578594</v>
+        <v>-0.004232507685590463</v>
       </c>
       <c r="E21">
-        <v>-0.08807036125700857</v>
+        <v>0.00351900364832263</v>
       </c>
       <c r="F21">
-        <v>0.05236509766892283</v>
+        <v>0.08282615620496242</v>
       </c>
       <c r="G21">
-        <v>0.03343671360036585</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0248721845502408</v>
+      </c>
+      <c r="H21">
+        <v>-0.03641057058100932</v>
+      </c>
+      <c r="I21">
+        <v>-0.007672890055252902</v>
+      </c>
+      <c r="J21">
+        <v>0.02033890697825127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04792883498654169</v>
+        <v>0.04140220510800111</v>
       </c>
       <c r="C24">
-        <v>-0.01421076285847362</v>
+        <v>-0.02111224180638958</v>
       </c>
       <c r="D24">
-        <v>-0.003324484108898941</v>
+        <v>0.005797770324754706</v>
       </c>
       <c r="E24">
-        <v>-0.04831088397012329</v>
+        <v>-0.007059240950856758</v>
       </c>
       <c r="F24">
-        <v>0.003600015225284083</v>
+        <v>0.04536174612038358</v>
       </c>
       <c r="G24">
-        <v>-0.01024487023296095</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.00900218390403351</v>
+      </c>
+      <c r="H24">
+        <v>-0.01563995278745741</v>
+      </c>
+      <c r="I24">
+        <v>-0.01808128998272556</v>
+      </c>
+      <c r="J24">
+        <v>-0.01458287576941093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04824923882509252</v>
+        <v>0.04299473316579833</v>
       </c>
       <c r="C25">
-        <v>-0.003953258897541473</v>
+        <v>-0.0210889660750449</v>
       </c>
       <c r="D25">
-        <v>-0.005365344836485986</v>
+        <v>0.004067808542523262</v>
       </c>
       <c r="E25">
-        <v>-0.04568503187238413</v>
+        <v>-0.01029944684232551</v>
       </c>
       <c r="F25">
-        <v>0.01161866291041936</v>
+        <v>0.0489671755720156</v>
       </c>
       <c r="G25">
-        <v>-0.01349321331081942</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.001454103716391247</v>
+      </c>
+      <c r="H25">
+        <v>-0.01001245440180144</v>
+      </c>
+      <c r="I25">
+        <v>-0.01921301448254389</v>
+      </c>
+      <c r="J25">
+        <v>-0.005863803101616335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.007099941596819644</v>
+        <v>0.01280850874781927</v>
       </c>
       <c r="C26">
-        <v>-0.01559491467045676</v>
+        <v>-0.01801811093682511</v>
       </c>
       <c r="D26">
-        <v>0.004914634757808328</v>
+        <v>-0.0004877703532284254</v>
       </c>
       <c r="E26">
-        <v>-0.04978688957339975</v>
+        <v>-0.01704727407589352</v>
       </c>
       <c r="F26">
-        <v>0.02015175371677664</v>
+        <v>0.0521940428187912</v>
       </c>
       <c r="G26">
-        <v>0.007986010689931327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.01117139790477361</v>
+      </c>
+      <c r="H26">
+        <v>-0.0384678143776799</v>
+      </c>
+      <c r="I26">
+        <v>-0.008395294425686756</v>
+      </c>
+      <c r="J26">
+        <v>-0.01107161237191462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1099520566346757</v>
+        <v>0.08212754852671372</v>
       </c>
       <c r="C27">
-        <v>-0.01799495681408081</v>
+        <v>-0.02634715438540501</v>
       </c>
       <c r="D27">
-        <v>0.02195754827685036</v>
+        <v>0.02817298487206685</v>
       </c>
       <c r="E27">
-        <v>-0.1100107998428389</v>
+        <v>0.007703070655841727</v>
       </c>
       <c r="F27">
-        <v>0.02751733458905281</v>
+        <v>0.08544786112383948</v>
       </c>
       <c r="G27">
-        <v>0.001286619621561463</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.005844542845935391</v>
+      </c>
+      <c r="H27">
+        <v>-0.01141149378460121</v>
+      </c>
+      <c r="I27">
+        <v>0.008882745411481433</v>
+      </c>
+      <c r="J27">
+        <v>-0.02354346636811951</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.006435930003934332</v>
+        <v>0.0293741170885418</v>
       </c>
       <c r="C28">
-        <v>0.2446781306936007</v>
+        <v>0.2342814099826457</v>
       </c>
       <c r="D28">
-        <v>-0.01610952569552382</v>
+        <v>-0.01544008717033727</v>
       </c>
       <c r="E28">
-        <v>-0.0299860124950176</v>
+        <v>-0.02434249842968753</v>
       </c>
       <c r="F28">
-        <v>0.01070383588025282</v>
+        <v>0.04350869932736678</v>
       </c>
       <c r="G28">
-        <v>-0.01098383224612644</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02438164916171424</v>
+      </c>
+      <c r="H28">
+        <v>0.02459826346506288</v>
+      </c>
+      <c r="I28">
+        <v>0.1673305192752073</v>
+      </c>
+      <c r="J28">
+        <v>-0.02880382093981562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02101932306951848</v>
+        <v>0.02136597023017014</v>
       </c>
       <c r="C29">
-        <v>-0.01617342322580371</v>
+        <v>-0.019065991279938</v>
       </c>
       <c r="D29">
-        <v>0.02230488458173972</v>
+        <v>0.01951419476056259</v>
       </c>
       <c r="E29">
-        <v>-0.029354405088008</v>
+        <v>0.01226263865021142</v>
       </c>
       <c r="F29">
-        <v>0.01035016353876972</v>
+        <v>0.0428851994707626</v>
       </c>
       <c r="G29">
-        <v>0.02619669130908441</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.01787281041058722</v>
+      </c>
+      <c r="H29">
+        <v>-0.05354876659872007</v>
+      </c>
+      <c r="I29">
+        <v>0.003903028714899085</v>
+      </c>
+      <c r="J29">
+        <v>0.02840215159843869</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1053966541011865</v>
+        <v>0.09850135491006819</v>
       </c>
       <c r="C30">
-        <v>-0.00768224937345108</v>
+        <v>-0.03653730127242211</v>
       </c>
       <c r="D30">
-        <v>0.02077980839616382</v>
+        <v>0.03450197724443289</v>
       </c>
       <c r="E30">
-        <v>-0.1141931110295672</v>
+        <v>-0.02200629565201453</v>
       </c>
       <c r="F30">
-        <v>0.02954427074654141</v>
+        <v>0.1077792777656536</v>
       </c>
       <c r="G30">
-        <v>-0.07347320505974633</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.009165506906432506</v>
+      </c>
+      <c r="H30">
+        <v>-0.0134759914327865</v>
+      </c>
+      <c r="I30">
+        <v>-0.02987356091358333</v>
+      </c>
+      <c r="J30">
+        <v>0.005570595296299491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05692769545890213</v>
+        <v>0.06045938396699053</v>
       </c>
       <c r="C31">
-        <v>-0.01281265978569704</v>
+        <v>-0.02079205682262861</v>
       </c>
       <c r="D31">
-        <v>0.01348067417868227</v>
+        <v>0.01972003326050775</v>
       </c>
       <c r="E31">
-        <v>0.02031122642574566</v>
+        <v>-0.01053402281733588</v>
       </c>
       <c r="F31">
-        <v>0.006921400266995099</v>
+        <v>0.005001182020549791</v>
       </c>
       <c r="G31">
-        <v>-0.001155705403047024</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03706514848759816</v>
+      </c>
+      <c r="H31">
+        <v>-0.04455751426146921</v>
+      </c>
+      <c r="I31">
+        <v>0.008382205000640918</v>
+      </c>
+      <c r="J31">
+        <v>0.0249331657712908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06958490529778899</v>
+        <v>0.04663332770276939</v>
       </c>
       <c r="C32">
-        <v>-0.02738608755126591</v>
+        <v>-0.0471282386143209</v>
       </c>
       <c r="D32">
-        <v>0.01516956071198478</v>
+        <v>0.02029051775509434</v>
       </c>
       <c r="E32">
-        <v>-0.1172176449652275</v>
+        <v>0.007964968137123742</v>
       </c>
       <c r="F32">
-        <v>0.0005337294180556968</v>
+        <v>0.1020086441193403</v>
       </c>
       <c r="G32">
-        <v>0.02391401337782151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.002845050589653581</v>
+      </c>
+      <c r="H32">
+        <v>-0.0461833100065989</v>
+      </c>
+      <c r="I32">
+        <v>0.01922556560565721</v>
+      </c>
+      <c r="J32">
+        <v>0.0182306502992547</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06791044742504958</v>
+        <v>0.05901874149409988</v>
       </c>
       <c r="C33">
-        <v>-0.03136564678068313</v>
+        <v>-0.04715361071263263</v>
       </c>
       <c r="D33">
-        <v>0.009396502916770818</v>
+        <v>0.006340918135254957</v>
       </c>
       <c r="E33">
-        <v>-0.07155063785519102</v>
+        <v>-0.0162133179105713</v>
       </c>
       <c r="F33">
-        <v>0.04866629061340655</v>
+        <v>0.08434223572527477</v>
       </c>
       <c r="G33">
-        <v>0.01946269452325982</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02260167931823579</v>
+      </c>
+      <c r="H33">
+        <v>-0.04883504250971175</v>
+      </c>
+      <c r="I33">
+        <v>-0.01727080570901052</v>
+      </c>
+      <c r="J33">
+        <v>-0.006205510190262535</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04711118835872272</v>
+        <v>0.04265525822007263</v>
       </c>
       <c r="C34">
-        <v>-0.01324184994075182</v>
+        <v>-0.02762690327665646</v>
       </c>
       <c r="D34">
-        <v>-0.00560904985586863</v>
+        <v>0.009530041483074595</v>
       </c>
       <c r="E34">
-        <v>-0.02728358657127844</v>
+        <v>-0.006652106230919981</v>
       </c>
       <c r="F34">
-        <v>-0.0022613897045574</v>
+        <v>0.0379725074221702</v>
       </c>
       <c r="G34">
-        <v>-0.0003946502264371577</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0002240138776126939</v>
+      </c>
+      <c r="H34">
+        <v>-0.02164429164263116</v>
+      </c>
+      <c r="I34">
+        <v>-0.017431166519774</v>
+      </c>
+      <c r="J34">
+        <v>0.002048342209359073</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01259865787980226</v>
+        <v>0.01461340973292562</v>
       </c>
       <c r="C36">
-        <v>0.01001917625988605</v>
+        <v>-0.001494244915605573</v>
       </c>
       <c r="D36">
-        <v>0.005696960309097248</v>
+        <v>0.007123547051319823</v>
       </c>
       <c r="E36">
-        <v>-0.02293831442215922</v>
+        <v>0.002099950087523486</v>
       </c>
       <c r="F36">
-        <v>0.009609994251218151</v>
+        <v>0.03115647494151551</v>
       </c>
       <c r="G36">
-        <v>0.006430306830915405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01646668656772924</v>
+      </c>
+      <c r="H36">
+        <v>-0.03240902416447408</v>
+      </c>
+      <c r="I36">
+        <v>0.001205299300252208</v>
+      </c>
+      <c r="J36">
+        <v>0.02499566491513047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05753383388432598</v>
+        <v>0.03325038167975394</v>
       </c>
       <c r="C38">
-        <v>-0.00500571744963724</v>
+        <v>-0.01114660492398481</v>
       </c>
       <c r="D38">
-        <v>0.0249321966975897</v>
+        <v>0.007522454432972728</v>
       </c>
       <c r="E38">
-        <v>-0.03251103363079376</v>
+        <v>3.437792791542625e-05</v>
       </c>
       <c r="F38">
-        <v>0.01303401728204519</v>
+        <v>0.05397018050576944</v>
       </c>
       <c r="G38">
-        <v>0.04437194532186861</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02637963928378604</v>
+      </c>
+      <c r="H38">
+        <v>-0.01543227198132605</v>
+      </c>
+      <c r="I38">
+        <v>-0.002733111653203574</v>
+      </c>
+      <c r="J38">
+        <v>0.03028133268029198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07419697071601056</v>
+        <v>0.05807674134243647</v>
       </c>
       <c r="C39">
-        <v>-0.01178687612227363</v>
+        <v>-0.03643734146819705</v>
       </c>
       <c r="D39">
-        <v>0.0009363071022006613</v>
+        <v>0.01664141013447575</v>
       </c>
       <c r="E39">
-        <v>-0.04688007603199463</v>
+        <v>-0.0154193749610787</v>
       </c>
       <c r="F39">
-        <v>0.02392700905119292</v>
+        <v>0.05949632948841246</v>
       </c>
       <c r="G39">
-        <v>-0.01329445712727187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01159521169267124</v>
+      </c>
+      <c r="H39">
+        <v>-0.01677296486118597</v>
+      </c>
+      <c r="I39">
+        <v>-0.03603436461845045</v>
+      </c>
+      <c r="J39">
+        <v>0.000744134845814931</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.06787072299491424</v>
+        <v>0.05586902967465461</v>
       </c>
       <c r="C40">
-        <v>-0.02850792500983003</v>
+        <v>-0.03591492523078086</v>
       </c>
       <c r="D40">
-        <v>0.005575598492996607</v>
+        <v>0.02516500767094807</v>
       </c>
       <c r="E40">
-        <v>-0.1107071834456006</v>
+        <v>-0.03266584980835167</v>
       </c>
       <c r="F40">
-        <v>0.04293085520365215</v>
+        <v>0.1078501545232636</v>
       </c>
       <c r="G40">
-        <v>0.1043529275073082</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.006327908352360883</v>
+      </c>
+      <c r="H40">
+        <v>-0.08017987567388296</v>
+      </c>
+      <c r="I40">
+        <v>0.005518891849966394</v>
+      </c>
+      <c r="J40">
+        <v>-0.05053273180778196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.004464220140572145</v>
+        <v>0.002245027039073834</v>
       </c>
       <c r="C41">
-        <v>-0.01336337343809437</v>
+        <v>-0.01201577672880017</v>
       </c>
       <c r="D41">
-        <v>0.01722283006061461</v>
+        <v>0.005231818937469326</v>
       </c>
       <c r="E41">
-        <v>-0.009076693411240816</v>
+        <v>0.001874321211842899</v>
       </c>
       <c r="F41">
-        <v>0.02387282752628081</v>
+        <v>0.01788490747320888</v>
       </c>
       <c r="G41">
-        <v>0.02208250423418737</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02902586383385104</v>
+      </c>
+      <c r="H41">
+        <v>-0.0383129278368458</v>
+      </c>
+      <c r="I41">
+        <v>0.0210273665448874</v>
+      </c>
+      <c r="J41">
+        <v>0.008385593378904705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1317867300656685</v>
+        <v>0.232650156942579</v>
       </c>
       <c r="C42">
-        <v>-0.1785536775441534</v>
+        <v>-0.134055210650479</v>
       </c>
       <c r="D42">
-        <v>-0.9369081775792404</v>
+        <v>-0.893059747927633</v>
       </c>
       <c r="E42">
-        <v>0.002769972661499525</v>
+        <v>-0.2498265793237762</v>
       </c>
       <c r="F42">
-        <v>-0.01678238406693062</v>
+        <v>-0.1899779712821488</v>
       </c>
       <c r="G42">
-        <v>-0.1212106719834337</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.004541565391725334</v>
+      </c>
+      <c r="H42">
+        <v>-0.001916256659378563</v>
+      </c>
+      <c r="I42">
+        <v>0.04672678342976807</v>
+      </c>
+      <c r="J42">
+        <v>0.0003770759737625148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008439686138790486</v>
+        <v>0.005069823686799001</v>
       </c>
       <c r="C43">
-        <v>-0.01480900014940329</v>
+        <v>-0.01449655542839943</v>
       </c>
       <c r="D43">
-        <v>0.01735112465044941</v>
+        <v>0.006024948204269656</v>
       </c>
       <c r="E43">
-        <v>-0.03146698551077058</v>
+        <v>-0.0002364461020186028</v>
       </c>
       <c r="F43">
-        <v>0.0009827436667888916</v>
+        <v>0.03171337612371069</v>
       </c>
       <c r="G43">
-        <v>0.01503344513231154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01207454047011824</v>
+      </c>
+      <c r="H43">
+        <v>-0.03691333505626612</v>
+      </c>
+      <c r="I43">
+        <v>0.01218605588348516</v>
+      </c>
+      <c r="J43">
+        <v>0.002179399146201023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.03846257941253675</v>
+        <v>0.02758932440388104</v>
       </c>
       <c r="C44">
-        <v>-0.0379479279909815</v>
+        <v>-0.03424094787888008</v>
       </c>
       <c r="D44">
-        <v>0.01194873891356103</v>
+        <v>0.002615825334983668</v>
       </c>
       <c r="E44">
-        <v>-0.110411307030572</v>
+        <v>-0.009638642300370551</v>
       </c>
       <c r="F44">
-        <v>0.08443271784230388</v>
+        <v>0.1241112642853227</v>
       </c>
       <c r="G44">
-        <v>0.1130120050768126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04028310957618129</v>
+      </c>
+      <c r="H44">
+        <v>-0.1157484053238964</v>
+      </c>
+      <c r="I44">
+        <v>0.02365190928446873</v>
+      </c>
+      <c r="J44">
+        <v>-0.009181219234217827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.0244293096932111</v>
+        <v>0.02329608749513706</v>
       </c>
       <c r="C46">
-        <v>-0.01335034487079883</v>
+        <v>-0.02642914205989761</v>
       </c>
       <c r="D46">
-        <v>0.02173169364691084</v>
+        <v>0.01855931994681848</v>
       </c>
       <c r="E46">
-        <v>-0.0202864773970023</v>
+        <v>6.115836810432792e-05</v>
       </c>
       <c r="F46">
-        <v>0.0210648087357255</v>
+        <v>0.04891642378283215</v>
       </c>
       <c r="G46">
-        <v>0.02828900268343439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.01833913456398868</v>
+      </c>
+      <c r="H46">
+        <v>-0.06066204552348432</v>
+      </c>
+      <c r="I46">
+        <v>0.0101296771855033</v>
+      </c>
+      <c r="J46">
+        <v>0.006944378585878596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08264028635742655</v>
+        <v>0.0903912252248711</v>
       </c>
       <c r="C47">
-        <v>-0.009148849194029184</v>
+        <v>-0.01951171641520853</v>
       </c>
       <c r="D47">
-        <v>0.0169196493637893</v>
+        <v>0.02395585975537209</v>
       </c>
       <c r="E47">
-        <v>0.0240456680096782</v>
+        <v>0.00349428787116467</v>
       </c>
       <c r="F47">
-        <v>0.000354551438413902</v>
+        <v>-0.002747116209057712</v>
       </c>
       <c r="G47">
-        <v>0.01879279189896668</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03332908376962552</v>
+      </c>
+      <c r="H47">
+        <v>-0.06203608803290576</v>
+      </c>
+      <c r="I47">
+        <v>0.01599058637203836</v>
+      </c>
+      <c r="J47">
+        <v>0.0133844934396824</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.0150534007071346</v>
+        <v>0.0169875081299487</v>
       </c>
       <c r="C48">
-        <v>-0.01662598305555683</v>
+        <v>-0.01987833076135646</v>
       </c>
       <c r="D48">
-        <v>0.01610515838280711</v>
+        <v>0.008235870511399871</v>
       </c>
       <c r="E48">
-        <v>-0.03338601202233264</v>
+        <v>0.004457138933324691</v>
       </c>
       <c r="F48">
-        <v>0.01641722436637067</v>
+        <v>0.03699583474016655</v>
       </c>
       <c r="G48">
-        <v>0.009491128389116261</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.009004825807658613</v>
+      </c>
+      <c r="H48">
+        <v>-0.02467521939679913</v>
+      </c>
+      <c r="I48">
+        <v>0.009686286137470759</v>
+      </c>
+      <c r="J48">
+        <v>0.006340378425801508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08304596956943551</v>
+        <v>0.08648834665424893</v>
       </c>
       <c r="C50">
-        <v>-0.02543609384311195</v>
+        <v>-0.03441358344364953</v>
       </c>
       <c r="D50">
-        <v>0.02550658605352474</v>
+        <v>0.01775792835180821</v>
       </c>
       <c r="E50">
-        <v>0.02305334502727821</v>
+        <v>0.006158311351175423</v>
       </c>
       <c r="F50">
-        <v>-0.0001843922316039601</v>
+        <v>0.003514461615302061</v>
       </c>
       <c r="G50">
-        <v>-0.0002269293145840417</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.003859584309818362</v>
+      </c>
+      <c r="H50">
+        <v>-0.04903347882808252</v>
+      </c>
+      <c r="I50">
+        <v>-0.003745047191927074</v>
+      </c>
+      <c r="J50">
+        <v>0.05465684685468881</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06921415823590479</v>
+        <v>0.04698793218875123</v>
       </c>
       <c r="C51">
-        <v>0.02195507635283189</v>
+        <v>0.003241709115586362</v>
       </c>
       <c r="D51">
-        <v>-0.002153457327397316</v>
+        <v>0.01321739385917208</v>
       </c>
       <c r="E51">
-        <v>-0.07321707002743677</v>
+        <v>-0.03325682187256283</v>
       </c>
       <c r="F51">
-        <v>0.05602738045932109</v>
+        <v>0.09090765730145672</v>
       </c>
       <c r="G51">
-        <v>0.0007599718807650603</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04865370803808421</v>
+      </c>
+      <c r="H51">
+        <v>-0.06203886195088446</v>
+      </c>
+      <c r="I51">
+        <v>0.03091090831476357</v>
+      </c>
+      <c r="J51">
+        <v>0.01652791999322581</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1475647775645422</v>
+        <v>0.1284907933264079</v>
       </c>
       <c r="C53">
-        <v>-0.01065086840453795</v>
+        <v>-0.03628781284025378</v>
       </c>
       <c r="D53">
-        <v>0.0383907754219654</v>
+        <v>0.04534083198331421</v>
       </c>
       <c r="E53">
-        <v>0.0414509107495118</v>
+        <v>0.01260838234905566</v>
       </c>
       <c r="F53">
-        <v>-0.01807546134809552</v>
+        <v>-0.03302712718865859</v>
       </c>
       <c r="G53">
-        <v>-0.01290761178677381</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02067102217878484</v>
+      </c>
+      <c r="H53">
+        <v>-0.003872464194368097</v>
+      </c>
+      <c r="I53">
+        <v>0.02905067748215121</v>
+      </c>
+      <c r="J53">
+        <v>-0.02921428396172472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02517218389601273</v>
+        <v>0.02192558049187582</v>
       </c>
       <c r="C54">
-        <v>0.004623954549568395</v>
+        <v>-0.007991102739906842</v>
       </c>
       <c r="D54">
-        <v>0.02766845581357886</v>
+        <v>0.02290822963227501</v>
       </c>
       <c r="E54">
-        <v>-0.02871577531413471</v>
+        <v>0.01253391082067726</v>
       </c>
       <c r="F54">
-        <v>0.04384848874629585</v>
+        <v>0.04597164498070066</v>
       </c>
       <c r="G54">
-        <v>0.0414292485884195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03755465367188678</v>
+      </c>
+      <c r="H54">
+        <v>-0.05195674267034094</v>
+      </c>
+      <c r="I54">
+        <v>0.03127628347433374</v>
+      </c>
+      <c r="J54">
+        <v>0.0319138281942808</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09795667590832993</v>
+        <v>0.1021164924178568</v>
       </c>
       <c r="C55">
-        <v>0.002695349391020702</v>
+        <v>-0.02020758537067141</v>
       </c>
       <c r="D55">
-        <v>0.03639440019932792</v>
+        <v>0.02712305433106507</v>
       </c>
       <c r="E55">
-        <v>0.0056704700240886</v>
+        <v>0.0365896192540263</v>
       </c>
       <c r="F55">
-        <v>-0.03208697322853358</v>
+        <v>-0.01642787704520209</v>
       </c>
       <c r="G55">
-        <v>-0.008653709204947844</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01194752717433447</v>
+      </c>
+      <c r="H55">
+        <v>-0.0215396062620321</v>
+      </c>
+      <c r="I55">
+        <v>0.006105487823154096</v>
+      </c>
+      <c r="J55">
+        <v>-0.01595558322950143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1801180096640769</v>
+        <v>0.1690897827470792</v>
       </c>
       <c r="C56">
-        <v>0.01823881928680244</v>
+        <v>-0.01635147776997052</v>
       </c>
       <c r="D56">
-        <v>0.07228565512242421</v>
+        <v>0.0808185919146832</v>
       </c>
       <c r="E56">
-        <v>0.07199320786174206</v>
+        <v>0.04118468064334392</v>
       </c>
       <c r="F56">
-        <v>-0.07278579407736888</v>
+        <v>-0.06857139291733842</v>
       </c>
       <c r="G56">
-        <v>-0.02065167679740159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02448225568722851</v>
+      </c>
+      <c r="H56">
+        <v>0.03338623718481168</v>
+      </c>
+      <c r="I56">
+        <v>-0.003644080297864379</v>
+      </c>
+      <c r="J56">
+        <v>-0.05815907590979465</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.08900735198277858</v>
+        <v>0.07047170001451554</v>
       </c>
       <c r="C57">
-        <v>-0.02428985232690602</v>
+        <v>-0.02935407840073397</v>
       </c>
       <c r="D57">
-        <v>0.02355495684149886</v>
+        <v>0.0146985645655972</v>
       </c>
       <c r="E57">
-        <v>-0.06288281046758722</v>
+        <v>-0.01677212534606396</v>
       </c>
       <c r="F57">
-        <v>0.02348738338711337</v>
+        <v>0.06874990272116331</v>
       </c>
       <c r="G57">
-        <v>0.0363886340645306</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.0101874019204526</v>
+      </c>
+      <c r="H57">
+        <v>-0.038772383830508</v>
+      </c>
+      <c r="I57">
+        <v>-0.0125947850702976</v>
+      </c>
+      <c r="J57">
+        <v>-0.03935619550469237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1634327248308551</v>
+        <v>0.1988978955620158</v>
       </c>
       <c r="C58">
-        <v>0.0003543929694307697</v>
+        <v>-0.05001642804380498</v>
       </c>
       <c r="D58">
-        <v>-0.04134263007290313</v>
+        <v>-0.01077722409495844</v>
       </c>
       <c r="E58">
-        <v>-0.1499590754953864</v>
+        <v>-0.05880359259963289</v>
       </c>
       <c r="F58">
-        <v>-0.04423460081240595</v>
+        <v>0.1950481149131278</v>
       </c>
       <c r="G58">
-        <v>0.2188802131007713</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1460819514784223</v>
+      </c>
+      <c r="H58">
+        <v>-0.2970050936503742</v>
+      </c>
+      <c r="I58">
+        <v>0.04699990927522058</v>
+      </c>
+      <c r="J58">
+        <v>0.6627691200453202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.006507670388866277</v>
+        <v>0.03304520101078445</v>
       </c>
       <c r="C59">
-        <v>0.2053352940483053</v>
+        <v>0.1981348692440046</v>
       </c>
       <c r="D59">
-        <v>0.01277523472290281</v>
+        <v>0.01975706737868721</v>
       </c>
       <c r="E59">
-        <v>-0.04638950515225974</v>
+        <v>-0.04010900675530626</v>
       </c>
       <c r="F59">
-        <v>0.01005909980642457</v>
+        <v>0.05655246320219673</v>
       </c>
       <c r="G59">
-        <v>-0.01095717977858732</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.002958861326366128</v>
+      </c>
+      <c r="H59">
+        <v>0.01939571845177463</v>
+      </c>
+      <c r="I59">
+        <v>0.07098527545429113</v>
+      </c>
+      <c r="J59">
+        <v>0.03050821593331329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1877612841165016</v>
+        <v>0.1836652531150405</v>
       </c>
       <c r="C60">
-        <v>0.1186311190566667</v>
+        <v>0.05623480771838282</v>
       </c>
       <c r="D60">
-        <v>0.03431465146117954</v>
+        <v>0.03691900376146737</v>
       </c>
       <c r="E60">
-        <v>-0.1685278040135832</v>
+        <v>-0.108203083028074</v>
       </c>
       <c r="F60">
-        <v>0.05790062132371577</v>
+        <v>0.1853055006075225</v>
       </c>
       <c r="G60">
-        <v>-0.1665847430667677</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.06446149166504259</v>
+      </c>
+      <c r="H60">
+        <v>0.2465407266273853</v>
+      </c>
+      <c r="I60">
+        <v>-0.1068892384824643</v>
+      </c>
+      <c r="J60">
+        <v>0.009896080722314462</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04521165168891594</v>
+        <v>0.03803618185985728</v>
       </c>
       <c r="C61">
-        <v>0.002069912817704047</v>
+        <v>-0.01765989004648788</v>
       </c>
       <c r="D61">
-        <v>-0.008141695502673168</v>
+        <v>0.003574939358949261</v>
       </c>
       <c r="E61">
-        <v>-0.04936006730389968</v>
+        <v>-0.01239896730276734</v>
       </c>
       <c r="F61">
-        <v>0.02672905907317563</v>
+        <v>0.0474475744954123</v>
       </c>
       <c r="G61">
-        <v>-0.009110084731263181</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.01046348209377328</v>
+      </c>
+      <c r="H61">
+        <v>-0.006550781599705215</v>
+      </c>
+      <c r="I61">
+        <v>-0.0387832072982917</v>
+      </c>
+      <c r="J61">
+        <v>0.02055520534260891</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04519346203359567</v>
+        <v>0.03092933419655458</v>
       </c>
       <c r="C63">
-        <v>0.007628982611087936</v>
+        <v>-0.01627370862773436</v>
       </c>
       <c r="D63">
-        <v>0.01468253334407301</v>
+        <v>0.01356726234065253</v>
       </c>
       <c r="E63">
-        <v>-0.03848916137646138</v>
+        <v>-0.006590567997220777</v>
       </c>
       <c r="F63">
-        <v>0.007637095211943421</v>
+        <v>0.03252771598804421</v>
       </c>
       <c r="G63">
-        <v>0.01078348217660356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.00767524181319143</v>
+      </c>
+      <c r="H63">
+        <v>-0.04503546064215187</v>
+      </c>
+      <c r="I63">
+        <v>0.02448803584235707</v>
+      </c>
+      <c r="J63">
+        <v>-0.01983920923750532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.0861029944313014</v>
+        <v>0.06223510628701915</v>
       </c>
       <c r="C64">
-        <v>-0.03569963066748046</v>
+        <v>-0.04315599914080015</v>
       </c>
       <c r="D64">
-        <v>0.05747719625663834</v>
+        <v>0.03207605411661153</v>
       </c>
       <c r="E64">
-        <v>-0.050794036250477</v>
+        <v>0.03177741746292764</v>
       </c>
       <c r="F64">
-        <v>0.09000519869902367</v>
+        <v>0.06748053932999337</v>
       </c>
       <c r="G64">
-        <v>-0.05490013553111182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05922970891999477</v>
+      </c>
+      <c r="H64">
+        <v>0.01336665191986362</v>
+      </c>
+      <c r="I64">
+        <v>0.01780086433824399</v>
+      </c>
+      <c r="J64">
+        <v>-0.07118079019930007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01911728218698875</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.004515042513859256</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0006517036306096906</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006484426657399085</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.0001725774680751902</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.01977892327834789</v>
+      </c>
+      <c r="H65">
+        <v>0.001049983951039331</v>
+      </c>
+      <c r="I65">
+        <v>-0.01032125624934283</v>
+      </c>
+      <c r="J65">
+        <v>0.003104745206597425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09381878658622214</v>
+        <v>0.07038027605037578</v>
       </c>
       <c r="C66">
-        <v>-0.01884867093585803</v>
+        <v>-0.05054659771742386</v>
       </c>
       <c r="D66">
-        <v>0.03988340492233476</v>
+        <v>0.0445757155515123</v>
       </c>
       <c r="E66">
-        <v>-0.07640329981912415</v>
+        <v>-0.02180508789860536</v>
       </c>
       <c r="F66">
-        <v>0.04323614366713063</v>
+        <v>0.07732848429535974</v>
       </c>
       <c r="G66">
-        <v>-0.01256007206895129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01119394989201514</v>
+      </c>
+      <c r="H66">
+        <v>-0.01200711570030125</v>
+      </c>
+      <c r="I66">
+        <v>-0.0531751791615374</v>
+      </c>
+      <c r="J66">
+        <v>-0.02616254865337901</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06512047191563915</v>
+        <v>0.04380116078386057</v>
       </c>
       <c r="C67">
-        <v>0.01914428686822419</v>
+        <v>0.005585634916665063</v>
       </c>
       <c r="D67">
-        <v>0.01268105574235913</v>
+        <v>0.007825245440761991</v>
       </c>
       <c r="E67">
-        <v>-0.02673989240381642</v>
+        <v>-0.008291429933869464</v>
       </c>
       <c r="F67">
-        <v>0.01118969515838577</v>
+        <v>0.0407710342685973</v>
       </c>
       <c r="G67">
-        <v>0.03767755698302742</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03295907915069383</v>
+      </c>
+      <c r="H67">
+        <v>0.001962582973666015</v>
+      </c>
+      <c r="I67">
+        <v>-0.03657989088028221</v>
+      </c>
+      <c r="J67">
+        <v>0.01216983481805725</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.004274760513590261</v>
+        <v>0.0397285278090985</v>
       </c>
       <c r="C68">
-        <v>0.24610255892676</v>
+        <v>0.2343654975539909</v>
       </c>
       <c r="D68">
-        <v>0.0004293937160424791</v>
+        <v>0.01274386604286505</v>
       </c>
       <c r="E68">
-        <v>-0.03040799303933496</v>
+        <v>-0.03302861229835848</v>
       </c>
       <c r="F68">
-        <v>-0.001376222769439475</v>
+        <v>0.03865421653449539</v>
       </c>
       <c r="G68">
-        <v>-0.004367524984777036</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.005675345660334302</v>
+      </c>
+      <c r="H68">
+        <v>0.02333046850110796</v>
+      </c>
+      <c r="I68">
+        <v>0.176041717883817</v>
+      </c>
+      <c r="J68">
+        <v>0.02367593241090709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06931129543715292</v>
+        <v>0.07169651891156198</v>
       </c>
       <c r="C69">
-        <v>-0.009677158584023507</v>
+        <v>-0.01885399679826735</v>
       </c>
       <c r="D69">
-        <v>0.02051643344700536</v>
+        <v>0.03092483198504851</v>
       </c>
       <c r="E69">
-        <v>0.01106104833527127</v>
+        <v>-0.004166285052734608</v>
       </c>
       <c r="F69">
-        <v>-0.002018768096586491</v>
+        <v>0.004794519016430946</v>
       </c>
       <c r="G69">
-        <v>0.008228921767320922</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02377323831574437</v>
+      </c>
+      <c r="H69">
+        <v>-0.04243676159998619</v>
+      </c>
+      <c r="I69">
+        <v>-0.005704550074767375</v>
+      </c>
+      <c r="J69">
+        <v>0.009942862683800274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.005294824332071933</v>
+        <v>0.04246722339572433</v>
       </c>
       <c r="C71">
-        <v>0.2676178688730193</v>
+        <v>0.2518017109599817</v>
       </c>
       <c r="D71">
-        <v>0.002238413104844467</v>
+        <v>-0.005171872222321308</v>
       </c>
       <c r="E71">
-        <v>-0.06153355047573159</v>
+        <v>-0.05792537576546018</v>
       </c>
       <c r="F71">
-        <v>0.0181919805799395</v>
+        <v>0.05703207276187994</v>
       </c>
       <c r="G71">
-        <v>-0.07920618643358701</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01771000353442015</v>
+      </c>
+      <c r="H71">
+        <v>0.03591696077928279</v>
+      </c>
+      <c r="I71">
+        <v>0.1468340861154115</v>
+      </c>
+      <c r="J71">
+        <v>0.03236990057784893</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1183345268057149</v>
+        <v>0.1218177336095281</v>
       </c>
       <c r="C72">
-        <v>0.01242228748176988</v>
+        <v>-0.01145731725739691</v>
       </c>
       <c r="D72">
-        <v>0.05034204871051558</v>
+        <v>0.05543844061874263</v>
       </c>
       <c r="E72">
-        <v>-0.09057817243040518</v>
+        <v>-0.006785312435286369</v>
       </c>
       <c r="F72">
-        <v>0.008287512173386117</v>
+        <v>0.08593344722137597</v>
       </c>
       <c r="G72">
-        <v>0.05598438059360097</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04771616801830793</v>
+      </c>
+      <c r="H72">
+        <v>-0.002684149834295451</v>
+      </c>
+      <c r="I72">
+        <v>-0.03145904450529524</v>
+      </c>
+      <c r="J72">
+        <v>0.1429610625311701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2747918114174291</v>
+        <v>0.2671761453612561</v>
       </c>
       <c r="C73">
-        <v>0.1982067265698376</v>
+        <v>0.1116264727506158</v>
       </c>
       <c r="D73">
-        <v>-0.007684944616556386</v>
+        <v>0.009658400543612135</v>
       </c>
       <c r="E73">
-        <v>-0.3088347344259287</v>
+        <v>-0.1911608015920371</v>
       </c>
       <c r="F73">
-        <v>0.08469308370945972</v>
+        <v>0.281007379262012</v>
       </c>
       <c r="G73">
-        <v>-0.3577881265150136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1329213394887575</v>
+      </c>
+      <c r="H73">
+        <v>0.4442417368592232</v>
+      </c>
+      <c r="I73">
+        <v>-0.3377984407437858</v>
+      </c>
+      <c r="J73">
+        <v>0.05094252703942499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1614601453498345</v>
+        <v>0.1528251027374762</v>
       </c>
       <c r="C74">
-        <v>0.006627561428076447</v>
+        <v>-0.02158221051685503</v>
       </c>
       <c r="D74">
-        <v>0.04072532251788923</v>
+        <v>0.04682447797801241</v>
       </c>
       <c r="E74">
-        <v>0.009534840216556366</v>
+        <v>0.01337902852442927</v>
       </c>
       <c r="F74">
-        <v>-0.05623045499174944</v>
+        <v>-0.04223348076236006</v>
       </c>
       <c r="G74">
-        <v>-0.04465517105933892</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.0177964509800202</v>
+      </c>
+      <c r="H74">
+        <v>0.01745193378441025</v>
+      </c>
+      <c r="I74">
+        <v>-0.01527805939499939</v>
+      </c>
+      <c r="J74">
+        <v>-0.08108925421147214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2369025662844922</v>
+        <v>0.2417914156886665</v>
       </c>
       <c r="C75">
-        <v>0.008949248211003319</v>
+        <v>-0.02502878654751236</v>
       </c>
       <c r="D75">
-        <v>0.05361960964366584</v>
+        <v>0.09956558252781358</v>
       </c>
       <c r="E75">
-        <v>0.1221834678170624</v>
+        <v>0.02815487819192668</v>
       </c>
       <c r="F75">
-        <v>-0.06793355091202385</v>
+        <v>-0.1323496524337102</v>
       </c>
       <c r="G75">
-        <v>-0.0178333191896364</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.003365823083455391</v>
+      </c>
+      <c r="H75">
+        <v>0.01429043564367014</v>
+      </c>
+      <c r="I75">
+        <v>0.06494357765100794</v>
+      </c>
+      <c r="J75">
+        <v>-0.1019067932274525</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2453450254983462</v>
+        <v>0.2682354921547952</v>
       </c>
       <c r="C76">
-        <v>0.01405487293063161</v>
+        <v>-0.01923954480008143</v>
       </c>
       <c r="D76">
-        <v>0.09410710904120134</v>
+        <v>0.122499880021888</v>
       </c>
       <c r="E76">
-        <v>0.1129254892068064</v>
+        <v>0.07352804600282456</v>
       </c>
       <c r="F76">
-        <v>-0.08742413066543411</v>
+        <v>-0.1554639171981915</v>
       </c>
       <c r="G76">
-        <v>-0.04130808772717776</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04894314442366068</v>
+      </c>
+      <c r="H76">
+        <v>0.0273922764152515</v>
+      </c>
+      <c r="I76">
+        <v>-0.02896726933798365</v>
+      </c>
+      <c r="J76">
+        <v>-0.1151238947570402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1224334152922204</v>
+        <v>0.1292821354026451</v>
       </c>
       <c r="C77">
-        <v>-0.01815439028011339</v>
+        <v>-0.05405217148979092</v>
       </c>
       <c r="D77">
-        <v>-0.04357213709780826</v>
+        <v>-0.04210148671802418</v>
       </c>
       <c r="E77">
-        <v>-0.1691585791063178</v>
+        <v>-0.04059069360621573</v>
       </c>
       <c r="F77">
-        <v>0.02191408252221722</v>
+        <v>0.1676523788300707</v>
       </c>
       <c r="G77">
-        <v>0.1627331724845254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02224208903282778</v>
+      </c>
+      <c r="H77">
+        <v>-0.199316651141474</v>
+      </c>
+      <c r="I77">
+        <v>0.1723416064203767</v>
+      </c>
+      <c r="J77">
+        <v>-0.1283862251739123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09211896612130503</v>
+        <v>0.08880942056625933</v>
       </c>
       <c r="C78">
-        <v>-0.03263823412295666</v>
+        <v>-0.05832107883818595</v>
       </c>
       <c r="D78">
-        <v>-0.01414670632238405</v>
+        <v>-0.003288347071075684</v>
       </c>
       <c r="E78">
-        <v>-0.06877524115318215</v>
+        <v>0.002314595796065238</v>
       </c>
       <c r="F78">
-        <v>0.01905759789101644</v>
+        <v>0.09009546775291206</v>
       </c>
       <c r="G78">
-        <v>-0.001125655373330062</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.002211589611080952</v>
+      </c>
+      <c r="H78">
+        <v>-0.025709046379548</v>
+      </c>
+      <c r="I78">
+        <v>0.03269711003021877</v>
+      </c>
+      <c r="J78">
+        <v>-0.01051064438738431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.06027585729002191</v>
+        <v>0.1184421417489381</v>
       </c>
       <c r="C80">
-        <v>-0.0005551833084970219</v>
+        <v>0.1435381621182023</v>
       </c>
       <c r="D80">
-        <v>-0.01505634555797167</v>
+        <v>-0.2969628828408173</v>
       </c>
       <c r="E80">
-        <v>-0.03232267038236436</v>
+        <v>0.8958919808988989</v>
       </c>
       <c r="F80">
-        <v>-0.04734026303022702</v>
+        <v>0.2005509081949554</v>
       </c>
       <c r="G80">
-        <v>0.5106720665453037</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.004797012918404171</v>
+      </c>
+      <c r="H80">
+        <v>0.1122445462169841</v>
+      </c>
+      <c r="I80">
+        <v>-0.0516160221938031</v>
+      </c>
+      <c r="J80">
+        <v>0.05526076601824296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1676496369080033</v>
+        <v>0.179780512334269</v>
       </c>
       <c r="C81">
-        <v>0.007564674993425245</v>
+        <v>-0.008860880174882497</v>
       </c>
       <c r="D81">
-        <v>0.04096175190895503</v>
+        <v>0.08243618644267187</v>
       </c>
       <c r="E81">
-        <v>0.1273053810441235</v>
+        <v>0.04048947150979068</v>
       </c>
       <c r="F81">
-        <v>-0.1053561258968834</v>
+        <v>-0.143961456401888</v>
       </c>
       <c r="G81">
-        <v>-0.02925432755812634</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02640287005341633</v>
+      </c>
+      <c r="H81">
+        <v>0.010494528782778</v>
+      </c>
+      <c r="I81">
+        <v>0.02774522840474997</v>
+      </c>
+      <c r="J81">
+        <v>-0.04932028850635808</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08714750235823557</v>
+        <v>0.06738070287733261</v>
       </c>
       <c r="C83">
-        <v>-0.04268391602384972</v>
+        <v>-0.04335244070523848</v>
       </c>
       <c r="D83">
-        <v>-0.09032931136405679</v>
+        <v>-0.03821613892339802</v>
       </c>
       <c r="E83">
-        <v>-0.03680988352025297</v>
+        <v>-0.03534745989736458</v>
       </c>
       <c r="F83">
-        <v>0.05658632903910048</v>
+        <v>0.05152356178441857</v>
       </c>
       <c r="G83">
-        <v>0.01251825605731339</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04644731442002246</v>
+      </c>
+      <c r="H83">
+        <v>-0.03245459358125748</v>
+      </c>
+      <c r="I83">
+        <v>0.01261336854418221</v>
+      </c>
+      <c r="J83">
+        <v>-0.07817092216552796</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2392815276627966</v>
+        <v>0.2566949069797018</v>
       </c>
       <c r="C85">
-        <v>-0.05473558461485055</v>
+        <v>-0.05645357748492198</v>
       </c>
       <c r="D85">
-        <v>0.04894708318376514</v>
+        <v>0.08069783844925613</v>
       </c>
       <c r="E85">
-        <v>0.138673555323963</v>
+        <v>0.06955150036141634</v>
       </c>
       <c r="F85">
-        <v>-0.06968576195018049</v>
+        <v>-0.1531749395574175</v>
       </c>
       <c r="G85">
-        <v>0.006239850750842424</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.008952806437055325</v>
+      </c>
+      <c r="H85">
+        <v>-0.01621347240380651</v>
+      </c>
+      <c r="I85">
+        <v>0.03375830978310057</v>
+      </c>
+      <c r="J85">
+        <v>-0.1200337576964969</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04979711187688063</v>
+        <v>0.0331282372356092</v>
       </c>
       <c r="C86">
-        <v>-0.03981356030911727</v>
+        <v>-0.04810090378457973</v>
       </c>
       <c r="D86">
-        <v>0.009934448338834518</v>
+        <v>0.004639764913314849</v>
       </c>
       <c r="E86">
-        <v>-0.05168002049118137</v>
+        <v>0.002865586223810297</v>
       </c>
       <c r="F86">
-        <v>0.002111250128828242</v>
+        <v>0.06903293830269897</v>
       </c>
       <c r="G86">
-        <v>0.02904422667542206</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.005300046064783541</v>
+      </c>
+      <c r="H86">
+        <v>-0.05744624356258025</v>
+      </c>
+      <c r="I86">
+        <v>0.04617489876782128</v>
+      </c>
+      <c r="J86">
+        <v>-0.0175442804580704</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02604407028209142</v>
+        <v>0.03752911314997775</v>
       </c>
       <c r="C87">
-        <v>0.05563821914065245</v>
+        <v>0.02167967355907129</v>
       </c>
       <c r="D87">
-        <v>0.02029334704473208</v>
+        <v>0.007118176511352267</v>
       </c>
       <c r="E87">
-        <v>-0.05813525497109321</v>
+        <v>-0.02398000306847039</v>
       </c>
       <c r="F87">
-        <v>0.06019851053887467</v>
+        <v>0.09652129986848926</v>
       </c>
       <c r="G87">
-        <v>-0.1245766081261652</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.0268222935489608</v>
+      </c>
+      <c r="H87">
+        <v>0.01134617648705972</v>
+      </c>
+      <c r="I87">
+        <v>-0.008462686433383831</v>
+      </c>
+      <c r="J87">
+        <v>0.06589839770950141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.03933472277847595</v>
+        <v>0.02680201218755655</v>
       </c>
       <c r="C88">
-        <v>-0.02740674156721935</v>
+        <v>-0.01811286023355165</v>
       </c>
       <c r="D88">
-        <v>0.006106963270468758</v>
+        <v>0.01129842957603671</v>
       </c>
       <c r="E88">
-        <v>0.001680947464898533</v>
+        <v>0.02188210374379946</v>
       </c>
       <c r="F88">
-        <v>-0.009212891927656333</v>
+        <v>0.001188853276379325</v>
       </c>
       <c r="G88">
-        <v>0.04439205231050227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02883600070548465</v>
+      </c>
+      <c r="H88">
+        <v>-0.04308033383988135</v>
+      </c>
+      <c r="I88">
+        <v>-0.02539769381795129</v>
+      </c>
+      <c r="J88">
+        <v>0.009555430399514613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01713688533669813</v>
+        <v>0.05140146349411735</v>
       </c>
       <c r="C89">
-        <v>0.4138118933747387</v>
+        <v>0.3893934384268884</v>
       </c>
       <c r="D89">
-        <v>-0.09033725038301488</v>
+        <v>-0.02160465224837511</v>
       </c>
       <c r="E89">
-        <v>0.0259749642532903</v>
+        <v>-0.08338065403231136</v>
       </c>
       <c r="F89">
-        <v>0.000683438424506095</v>
+        <v>0.005709449826349346</v>
       </c>
       <c r="G89">
-        <v>0.03627769261463045</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.05012122267352737</v>
+      </c>
+      <c r="H89">
+        <v>-0.02435411118383621</v>
+      </c>
+      <c r="I89">
+        <v>0.278906062144125</v>
+      </c>
+      <c r="J89">
+        <v>-0.006797646927694743</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.006075529625133732</v>
+        <v>0.03761040426113105</v>
       </c>
       <c r="C90">
-        <v>0.3079606695427342</v>
+        <v>0.3335964849396286</v>
       </c>
       <c r="D90">
-        <v>-0.0226077820435168</v>
+        <v>-0.01205830728827151</v>
       </c>
       <c r="E90">
-        <v>-0.0298413047320635</v>
+        <v>-0.03459928869948389</v>
       </c>
       <c r="F90">
-        <v>0.01063831997548322</v>
+        <v>0.03079954224331287</v>
       </c>
       <c r="G90">
-        <v>-0.05681938768075854</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.0217888450477409</v>
+      </c>
+      <c r="H90">
+        <v>0.02394214565248974</v>
+      </c>
+      <c r="I90">
+        <v>0.2191953794049385</v>
+      </c>
+      <c r="J90">
+        <v>0.01581523642118554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3048955700187024</v>
+        <v>0.3149217478393769</v>
       </c>
       <c r="C91">
-        <v>-0.02492041606877029</v>
+        <v>-0.04403708017887895</v>
       </c>
       <c r="D91">
-        <v>0.0431194190735704</v>
+        <v>0.09517170571314088</v>
       </c>
       <c r="E91">
-        <v>0.262037212055535</v>
+        <v>0.06829062360748342</v>
       </c>
       <c r="F91">
-        <v>-0.1731086526884267</v>
+        <v>-0.2806253492563335</v>
       </c>
       <c r="G91">
-        <v>0.06010289293363122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.04442454789554484</v>
+      </c>
+      <c r="H91">
+        <v>0.01980994876651769</v>
+      </c>
+      <c r="I91">
+        <v>0.08067301047780555</v>
+      </c>
+      <c r="J91">
+        <v>-0.2336476321561455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.0227912971090494</v>
+        <v>0.08117696920966165</v>
       </c>
       <c r="C92">
-        <v>0.4370281952948297</v>
+        <v>0.4528667514036697</v>
       </c>
       <c r="D92">
-        <v>-0.2097209339264593</v>
+        <v>-0.04506805762307251</v>
       </c>
       <c r="E92">
-        <v>0.1016558246062976</v>
+        <v>-0.02957256344283814</v>
       </c>
       <c r="F92">
-        <v>-0.08262098486611638</v>
+        <v>-0.138774798407369</v>
       </c>
       <c r="G92">
-        <v>0.4261140768289091</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.07064633883743678</v>
+      </c>
+      <c r="H92">
+        <v>-0.527474146587096</v>
+      </c>
+      <c r="I92">
+        <v>-0.6669851800322709</v>
+      </c>
+      <c r="J92">
+        <v>-0.1198965365330393</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01707876838905787</v>
+        <v>0.04013705454538429</v>
       </c>
       <c r="C93">
-        <v>0.3703683362213969</v>
+        <v>0.4051978089758476</v>
       </c>
       <c r="D93">
-        <v>-0.06836933245427784</v>
+        <v>-0.03154672834685018</v>
       </c>
       <c r="E93">
-        <v>0.04441656268209324</v>
+        <v>-0.06421907127144719</v>
       </c>
       <c r="F93">
-        <v>-0.02025621779960845</v>
+        <v>-0.02979813582379396</v>
       </c>
       <c r="G93">
-        <v>0.02623484444699919</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.0386931815535142</v>
+      </c>
+      <c r="H93">
+        <v>0.03730963620264492</v>
+      </c>
+      <c r="I93">
+        <v>0.1988041819183557</v>
+      </c>
+      <c r="J93">
+        <v>-0.01515259015680723</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2992123674552003</v>
+        <v>0.3192263732835712</v>
       </c>
       <c r="C94">
-        <v>0.03188006632211042</v>
+        <v>-0.003237560202598861</v>
       </c>
       <c r="D94">
-        <v>-0.003393234054777277</v>
+        <v>0.145637987618472</v>
       </c>
       <c r="E94">
-        <v>0.3505002983422432</v>
+        <v>0.0472349041178432</v>
       </c>
       <c r="F94">
-        <v>-0.4283737920533874</v>
+        <v>-0.3584519695486642</v>
       </c>
       <c r="G94">
-        <v>-0.02471400429060052</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1693440042181263</v>
+      </c>
+      <c r="H94">
+        <v>-0.09458586573424953</v>
+      </c>
+      <c r="I94">
+        <v>0.1281967140912597</v>
+      </c>
+      <c r="J94">
+        <v>0.3451010817916278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.2025583001304413</v>
+        <v>0.1381744749748263</v>
       </c>
       <c r="C95">
-        <v>0.02681898237818784</v>
+        <v>-0.06044908451218325</v>
       </c>
       <c r="D95">
-        <v>-0.01768361429784831</v>
+        <v>0.04499346224404467</v>
       </c>
       <c r="E95">
-        <v>0.4653722555453614</v>
+        <v>-0.02092781371654758</v>
       </c>
       <c r="F95">
-        <v>0.8134870707659103</v>
+        <v>-0.05305790943965626</v>
       </c>
       <c r="G95">
-        <v>0.08450402913328339</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9313331307812813</v>
+      </c>
+      <c r="H95">
+        <v>0.1202625612648385</v>
+      </c>
+      <c r="I95">
+        <v>-0.03532993916461723</v>
+      </c>
+      <c r="J95">
+        <v>0.1859950213428111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2151931032723647</v>
+        <v>0.2023894446504803</v>
       </c>
       <c r="C98">
-        <v>0.1416607213635609</v>
+        <v>0.07946616248057448</v>
       </c>
       <c r="D98">
-        <v>-0.02712596592441444</v>
+        <v>0.002031582543865998</v>
       </c>
       <c r="E98">
-        <v>-0.1064095981598738</v>
+        <v>-0.140347243426044</v>
       </c>
       <c r="F98">
-        <v>0.04059861239378946</v>
+        <v>0.130332301522712</v>
       </c>
       <c r="G98">
-        <v>-0.2504411332868928</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.06283307170026523</v>
+      </c>
+      <c r="H98">
+        <v>0.3124287530893009</v>
+      </c>
+      <c r="I98">
+        <v>-0.1936944022478223</v>
+      </c>
+      <c r="J98">
+        <v>-0.0209167746945801</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02077098466474357</v>
+        <v>0.01502408590529367</v>
       </c>
       <c r="C101">
-        <v>-0.01648713935148772</v>
+        <v>-0.02973871284519949</v>
       </c>
       <c r="D101">
-        <v>0.02393243530583762</v>
+        <v>0.02542041961022116</v>
       </c>
       <c r="E101">
-        <v>-0.02972656708429089</v>
+        <v>0.008560794206380146</v>
       </c>
       <c r="F101">
-        <v>0.01010366675343348</v>
+        <v>0.07017510072995944</v>
       </c>
       <c r="G101">
-        <v>0.02614231388690492</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.001234073583597198</v>
+      </c>
+      <c r="H101">
+        <v>-0.1094068387640998</v>
+      </c>
+      <c r="I101">
+        <v>-0.01201505710938747</v>
+      </c>
+      <c r="J101">
+        <v>0.1917358983649384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1202261947415917</v>
+        <v>0.1215433835714151</v>
       </c>
       <c r="C102">
-        <v>-0.01065902839364644</v>
+        <v>-0.02658479253764873</v>
       </c>
       <c r="D102">
-        <v>0.03493858585488231</v>
+        <v>0.04956824866689617</v>
       </c>
       <c r="E102">
-        <v>0.0885440823039719</v>
+        <v>0.04157218194579429</v>
       </c>
       <c r="F102">
-        <v>-0.00889191213762075</v>
+        <v>-0.08420666026668761</v>
       </c>
       <c r="G102">
-        <v>0.004743454396877169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02784739926450158</v>
+      </c>
+      <c r="H102">
+        <v>0.01666045899670953</v>
+      </c>
+      <c r="I102">
+        <v>0.03645936349388573</v>
+      </c>
+      <c r="J102">
+        <v>-0.04768614285179148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01907434138931129</v>
+        <v>0.03072117910008093</v>
       </c>
       <c r="C103">
-        <v>-0.001244575038233901</v>
+        <v>-0.00635988648123699</v>
       </c>
       <c r="D103">
-        <v>0.01185255389009667</v>
+        <v>0.01716185802085069</v>
       </c>
       <c r="E103">
-        <v>0.02247453409282528</v>
+        <v>0.02297998172614941</v>
       </c>
       <c r="F103">
-        <v>-0.01017910123638361</v>
+        <v>-0.01415015242027332</v>
       </c>
       <c r="G103">
-        <v>-0.008232591110224273</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01467429174577648</v>
+      </c>
+      <c r="H103">
+        <v>-0.01251087248695571</v>
+      </c>
+      <c r="I103">
+        <v>0.02853911676312608</v>
+      </c>
+      <c r="J103">
+        <v>-0.01123837704568674</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
